--- a/div/eventsheet/2BL-minreqs-2020.xlsx
+++ b/div/eventsheet/2BL-minreqs-2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Schiedsrichterliste" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
   <si>
     <t>Zwei Standardfelder mit Netzen</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>Mindestanforderungen 2. Bundesliga ab Saison 2020-21 gemäß DBLV-Spielordnung</t>
   </si>
   <si>
     <t>bernd.mohaupt@onlinehome.de</t>
@@ -2107,8 +2110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2129,7 +2132,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.25">
       <c r="A1" s="91" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -2151,7 +2154,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="11"/>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75">
@@ -2206,19 +2209,19 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1">
@@ -2249,7 +2252,7 @@
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="A6" s="11"/>
       <c r="B6" s="57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="58"/>
       <c r="D6" s="58"/>
@@ -2411,10 +2414,10 @@
         <v>54</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
@@ -2519,10 +2522,10 @@
     <row r="20" spans="1:15" s="2" customFormat="1" ht="66" customHeight="1" thickBot="1">
       <c r="A20" s="22"/>
       <c r="B20" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" s="61"/>
       <c r="E20" s="61"/>
@@ -2555,7 +2558,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D21" s="61"/>
       <c r="E21" s="61"/>
@@ -2956,7 +2959,7 @@
     <row r="34" spans="1:17">
       <c r="A34" s="11"/>
       <c r="B34" s="63" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="64"/>
       <c r="D34" s="69"/>
@@ -3116,7 +3119,7 @@
       </c>
       <c r="C46" s="38"/>
       <c r="D46" s="48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E46" s="34"/>
       <c r="F46" s="39"/>
@@ -3154,7 +3157,7 @@
       <c r="D50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection password="CBAB" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="28">
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="A1:I1"/>
@@ -3246,8 +3249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49:H51"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3269,7 +3272,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="20.25">
       <c r="A1" s="91" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -3298,7 +3301,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75">
@@ -3359,22 +3362,22 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" thickBot="1">
@@ -3442,7 +3445,7 @@
     <row r="7" spans="1:22" ht="15.75" thickBot="1">
       <c r="A7" s="11"/>
       <c r="B7" s="57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
@@ -3666,10 +3669,10 @@
         <v>54</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O17" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
@@ -3865,7 +3868,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="61"/>
       <c r="E24" s="61"/>
@@ -3900,7 +3903,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="61"/>
       <c r="E25" s="61"/>
@@ -4252,7 +4255,7 @@
     <row r="36" spans="1:15">
       <c r="A36" s="11"/>
       <c r="B36" s="117" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="118"/>
       <c r="D36" s="69"/>
@@ -4496,7 +4499,7 @@
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E49" s="34"/>
       <c r="F49" s="39"/>
@@ -4534,7 +4537,7 @@
       <c r="D53" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection password="CBAB" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="38">
     <mergeCell ref="P12:V12"/>
     <mergeCell ref="B13:H13"/>

--- a/div/eventsheet/2BL-minreqs-2020.xlsx
+++ b/div/eventsheet/2BL-minreqs-2020.xlsx
@@ -4,27 +4,37 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="2340" yWindow="1200" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Schiedsrichterliste" sheetId="3" r:id="rId1"/>
     <sheet name="Vereinsliste" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Schiedsrichterliste!$A$1:$I$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Vereinsliste!$A$1:$I$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Schiedsrichterliste!$A$1:$I$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Vereinsliste!$A$1:$I$54</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
   <si>
     <t>Zwei Standardfelder mit Netzen</t>
   </si>
@@ -98,15 +108,6 @@
     <t>Liebe Schiedsrichterinnen, liebe Schiedsrichter,</t>
   </si>
   <si>
-    <t>Vorsitzender DBLV:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundesliga Spielleiter:             </t>
-  </si>
-  <si>
-    <t>ArnoSigiOlaf@t-online.de</t>
-  </si>
-  <si>
     <t>Verantwortlicher Schiedsrichter:</t>
   </si>
   <si>
@@ -132,9 +133,6 @@
   </si>
   <si>
     <t>Plakate mit BL-Logo im Eingangsbereich der Sportstätte</t>
-  </si>
-  <si>
-    <t>Programmheft mit BL-Logo auf Titelseite</t>
   </si>
   <si>
     <r>
@@ -251,12 +249,6 @@
   </si>
   <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>Mindestanforderungen 2. Bundesliga ab Saison 2020-21 gemäß DBLV-Spielordnung</t>
-  </si>
-  <si>
-    <t>bernd.mohaupt@onlinehome.de</t>
   </si>
   <si>
     <t xml:space="preserve">4a
@@ -371,7 +363,60 @@
 falls nicht zutreffend "keine" eintragen</t>
   </si>
   <si>
-    <t>Mindestanforderungen 2. Bundesliga ab Saison 2021-22 gemäß DBLV-Spielordnung</t>
+    <t>Mindestanforderungen 2. Bundesliga ab Saison 2022-23 gemäß DBLV-Spielordnung</t>
+  </si>
+  <si>
+    <t>Programmheft als Druckversion oder digital mit BL-Logo auf Titelseite</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bundesliga Spielleiter:           </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bernd.Mohaupt@dblv-Badminton-Bundesliga.de</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Präsident DBLV:                   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arno.Schley@dblv-Badminton-Bundesliga.de</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Öffentlichkeitsarbeit DBLV:    </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Selina.Nadler@dblv-Badminton-bundesliga.de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -483,15 +528,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +608,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -605,7 +647,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -837,27 +879,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -865,8 +892,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -923,56 +949,50 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -986,115 +1006,17 @@
     <xf numFmtId="14" fontId="13" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1106,10 +1028,172 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1119,54 +1203,45 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1185,49 +1260,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2108,9 +2141,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="D34" sqref="D34:H39"/>
     </sheetView>
   </sheetViews>
@@ -2131,48 +2164,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.25">
-      <c r="A1" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="A1" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="11"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="10"/>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75">
-      <c r="A3" s="11"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="49"/>
+      <c r="G3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="10"/>
       <c r="K3">
         <f>IF(ISBLANK(D3),0,1)</f>
         <v>0</v>
@@ -2199,245 +2232,245 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="92" t="str">
+      <c r="A5" s="10"/>
+      <c r="B5" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="62" t="str">
         <f>IF(M36+N36=16,IF(O36&gt;0,"Mindestens ein Verstoß","alles ok"),"nicht alle Haken oder doppelt gesetzt")</f>
         <v>nicht alle Haken oder doppelt gesetzt</v>
       </c>
-      <c r="F5" s="93" t="e">
+      <c r="F5" s="63" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="G5" s="93" t="e">
+      <c r="G5" s="63" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="H5" s="94" t="e">
+      <c r="H5" s="64" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="92" t="str">
+      <c r="A6" s="10"/>
+      <c r="B6" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="62" t="str">
         <f>IF(P3=5,"alles ok","nicht alle Pflichtfelder ausgefüllt")</f>
         <v>nicht alle Pflichtfelder ausgefüllt</v>
       </c>
-      <c r="F6" s="93" t="e">
+      <c r="F6" s="63" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="93" t="e">
+      <c r="G6" s="63" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="94" t="e">
+      <c r="H6" s="64" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="I6" s="11"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:16" ht="19.5">
-      <c r="A8" s="11"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:16" ht="10.5" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:16" ht="18">
-      <c r="A10" s="11"/>
-      <c r="B10" s="95" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="16"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="15"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="93" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:16" ht="30.75" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="84" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:16" ht="56.25" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="17"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:16" ht="21.75" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="85" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:16" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="20" t="s">
+      <c r="C16" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="K16" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="O16" s="27" t="s">
-        <v>71</v>
+      <c r="I16" s="10"/>
+      <c r="K16" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22">
         <v>1</v>
       </c>
-      <c r="C17" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="22"/>
-      <c r="K17" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7" t="b">
+      <c r="C17" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="21"/>
+      <c r="K17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M17">
@@ -2448,29 +2481,29 @@
         <f>IF((L17=FALSE),0,1)</f>
         <v>0</v>
       </c>
-      <c r="O17" s="52">
+      <c r="O17" s="47">
         <f>N17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="24">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23">
         <v>2</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="22"/>
-      <c r="K18" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7" t="b">
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="21"/>
+      <c r="K18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M18">
@@ -2481,29 +2514,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O18" s="52">
+      <c r="O18" s="47">
         <f t="shared" ref="O18:O32" si="1">N18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="24">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23">
         <v>3</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="22"/>
-      <c r="K19" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7" t="b">
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="21"/>
+      <c r="K19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M19">
@@ -2514,29 +2547,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O19" s="52">
+      <c r="O19" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="2" customFormat="1" ht="66" customHeight="1" thickBot="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="22"/>
-      <c r="K20" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7" t="b">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="21"/>
+      <c r="K20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M20">
@@ -2547,29 +2580,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O20" s="52">
+      <c r="O20" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="24">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23">
         <v>5</v>
       </c>
-      <c r="C21" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="22"/>
-      <c r="K21" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7" t="b">
+      <c r="C21" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="21"/>
+      <c r="K21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M21">
@@ -2580,26 +2613,26 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O21" s="52"/>
+      <c r="O21" s="47"/>
     </row>
     <row r="22" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="24">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23">
         <v>6</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="22"/>
-      <c r="K22" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="7" t="b">
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="21"/>
+      <c r="K22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M22">
@@ -2610,29 +2643,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O22" s="52">
+      <c r="O22" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="24">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23">
         <v>7</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="22"/>
-      <c r="K23" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7" t="b">
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="21"/>
+      <c r="K23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M23">
@@ -2643,29 +2676,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="52">
+      <c r="O23" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="24">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23">
         <v>8</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="22"/>
-      <c r="K24" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="7" t="b">
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="21"/>
+      <c r="K24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M24">
@@ -2676,29 +2709,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O24" s="52">
+      <c r="O24" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="24">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23">
         <v>9</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="22"/>
-      <c r="K25" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="7" t="b">
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="21"/>
+      <c r="K25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M25">
@@ -2709,29 +2742,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O25" s="52">
+      <c r="O25" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="24">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23">
         <v>10</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="22"/>
-      <c r="K26" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="7" t="b">
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="21"/>
+      <c r="K26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M26">
@@ -2742,29 +2775,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O26" s="52">
+      <c r="O26" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="A27" s="22"/>
-      <c r="B27" s="24">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23">
         <v>11</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="22"/>
-      <c r="K27" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="7" t="b">
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="21"/>
+      <c r="K27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M27">
@@ -2775,29 +2808,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O27" s="52">
+      <c r="O27" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A28" s="22"/>
-      <c r="B28" s="24">
+      <c r="A28" s="21"/>
+      <c r="B28" s="23">
         <v>12</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="22"/>
-      <c r="K28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="7" t="b">
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="21"/>
+      <c r="K28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M28">
@@ -2808,29 +2841,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O28" s="52">
+      <c r="O28" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="24">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23">
         <v>13</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="22"/>
-      <c r="K29" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="7" t="b">
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="21"/>
+      <c r="K29" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M29">
@@ -2841,29 +2874,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O29" s="52">
+      <c r="O29" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="24">
+      <c r="A30" s="21"/>
+      <c r="B30" s="23">
         <v>14</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="22"/>
-      <c r="K30" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="7" t="b">
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="21"/>
+      <c r="K30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M30">
@@ -2874,29 +2907,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O30" s="52">
+      <c r="O30" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="24">
+      <c r="A31" s="21"/>
+      <c r="B31" s="23">
         <v>15</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="22"/>
-      <c r="K31" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="7" t="b">
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="21"/>
+      <c r="K31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M31">
@@ -2907,29 +2940,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O31" s="52">
+      <c r="O31" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="24">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23">
         <v>16</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="22"/>
-      <c r="K32" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" s="7" t="b">
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="21"/>
+      <c r="K32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M32">
@@ -2940,56 +2973,56 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O32" s="52">
+      <c r="O32" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="11"/>
-      <c r="B34" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="11"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:17" ht="27.6" customHeight="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="77"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="11"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="11"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="11"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="11"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="10"/>
       <c r="M36">
         <f>SUM(M17:M33)</f>
         <v>0</v>
@@ -3004,167 +3037,206 @@
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="11"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="11"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="11"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="11"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="11"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="11"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="10"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="Q40" s="28"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="Q40" s="27"/>
     </row>
     <row r="41" spans="1:17" ht="20.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="11"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="11"/>
-      <c r="Q42" s="28"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="10"/>
+      <c r="Q42" s="27"/>
     </row>
     <row r="43" spans="1:17" ht="18">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="34"/>
-      <c r="B44" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
     </row>
     <row r="45" spans="1:17" ht="8.25" customHeight="1">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="34"/>
-      <c r="B46" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="38"/>
-      <c r="D46" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="34"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="34"/>
-    </row>
-    <row r="47" spans="1:17" ht="5.25" customHeight="1">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-    </row>
-    <row r="48" spans="1:17" ht="21.75" customHeight="1">
-      <c r="A48" s="34"/>
-      <c r="B48" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="34"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="34"/>
-    </row>
-    <row r="50" spans="4:4" ht="9" customHeight="1">
-      <c r="D50" s="3"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="33"/>
+    </row>
+    <row r="47" spans="1:17" ht="7.5" customHeight="1">
+      <c r="A47" s="33"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+    </row>
+    <row r="48" spans="1:17" ht="15" customHeight="1">
+      <c r="A48" s="33"/>
+      <c r="B48" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="97"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="33"/>
+    </row>
+    <row r="49" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B49" s="98"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+    </row>
+    <row r="50" spans="2:6" ht="15" customHeight="1">
+      <c r="B50" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="97"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="97"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="55"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="59"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="55"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="59"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="55"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="59"/>
     </row>
   </sheetData>
-  <sheetProtection password="CBAB" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="28">
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:H11"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dQzeUds1S/BLX5nfLLsKNCj6IZ2M/jKCRYbyioKJ2cA4Rxs7SPcajiabyuEOD7iqm7wjpCAbfyg5DrAWDiP3ww==" saltValue="7p/MS5fI7ZRznreOSpVuBw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <mergeCells count="33">
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="B34:C39"/>
+    <mergeCell ref="D34:H39"/>
+    <mergeCell ref="E41:H42"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
@@ -3177,16 +3249,12 @@
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="B34:C39"/>
-    <mergeCell ref="D34:H39"/>
-    <mergeCell ref="E41:H42"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="G17:G32">
     <cfRule type="expression" dxfId="26" priority="10">
@@ -3220,7 +3288,7 @@
       <formula>NOT(ISERROR(SEARCH("alles ok",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 F3 H3 D34:H39 E41:H42">
+  <conditionalFormatting sqref="D3 F3 H3 E41:H42 D34">
     <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3235,22 +3303,18 @@
       <formula>NOT(ISERROR(SEARCH("nicht alle Pflichtfelder ausgefüllt",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="D48" r:id="rId1"/>
-    <hyperlink ref="D46" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44:H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3259,7 +3323,7 @@
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="34.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
@@ -3271,56 +3335,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.25">
-      <c r="A1" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
+      <c r="A1" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75">
-      <c r="A3" s="11"/>
-      <c r="B3" s="99" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="119"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="49"/>
+      <c r="G3" s="12" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="54"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
       <c r="K3">
         <f>IF(ISBLANK(D3),0,1)</f>
         <v>0</v>
@@ -3351,1194 +3415,1240 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="92" t="str">
+      <c r="A5" s="10"/>
+      <c r="B5" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="62" t="str">
         <f>IF(M38+N38=8,IF(O38&gt;0,"Mindestens ein Verstoß","alles ok"),"nicht alle Haken oder doppelt gesetzt")</f>
         <v>nicht alle Haken oder doppelt gesetzt</v>
       </c>
-      <c r="F5" s="92" t="e">
+      <c r="F5" s="62" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="G5" s="92" t="e">
+      <c r="G5" s="62" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="H5" s="101" t="e">
+      <c r="H5" s="120" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="92" t="str">
+      <c r="A6" s="10"/>
+      <c r="B6" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="62" t="str">
         <f>IF(M39+N39=5,IF(N39&gt;0,"Mindestens eine Empfehlung nicht umgesetzt","alles ok"),"nicht alle Haken oder doppelt gesetzt")</f>
         <v>nicht alle Haken oder doppelt gesetzt</v>
       </c>
-      <c r="F6" s="92" t="e">
+      <c r="F6" s="62" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="92" t="e">
+      <c r="G6" s="62" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="101" t="e">
+      <c r="H6" s="120" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="92" t="str">
+      <c r="A7" s="10"/>
+      <c r="B7" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="62" t="str">
         <f>IF(Q3=6,"alles ok","nicht alle Pflichtfelder ausgefüllt")</f>
         <v>nicht alle Pflichtfelder ausgefüllt</v>
       </c>
-      <c r="F7" s="93" t="e">
+      <c r="F7" s="63" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="G7" s="93" t="e">
+      <c r="G7" s="63" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="H7" s="94" t="e">
+      <c r="H7" s="64" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="I7" s="11"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:22" ht="19.5">
-      <c r="A9" s="11"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:22" ht="10.5" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:22" ht="18">
-      <c r="A11" s="11"/>
-      <c r="B11" s="95" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" ht="76.5" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="99"/>
+    </row>
+    <row r="13" spans="1:22" ht="30.75" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:22" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="139" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="1:19" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22">
+        <v>1</v>
+      </c>
+      <c r="C18" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="21"/>
+    </row>
+    <row r="19" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23">
+        <v>2</v>
+      </c>
+      <c r="C19" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" ref="M19:N34" si="0">IF((K19=FALSE),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="46">
+        <f>N19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23">
+        <v>3</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="46">
+        <f t="shared" ref="O20:O34" si="1">N20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="2" customFormat="1" ht="45" customHeight="1" thickBot="1">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23">
+        <v>4</v>
+      </c>
+      <c r="C21" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" ht="76.5" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="123"/>
-      <c r="T12" s="123"/>
-      <c r="U12" s="123"/>
-      <c r="V12" s="123"/>
-    </row>
-    <row r="13" spans="1:22" ht="30.75" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:22" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="98" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="132" t="s">
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="110"/>
+    </row>
+    <row r="22" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23">
+        <v>5</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23">
+        <v>6</v>
+      </c>
+      <c r="C23" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23">
+        <v>7</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" ref="M24" si="2">IF((K24=FALSE),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" ref="N24" si="3">IF((L24=FALSE),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="46"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="110"/>
+    </row>
+    <row r="25" spans="1:19" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23">
+        <v>8</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="32">
+        <v>0</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="10">
+        <f>IF(G25="",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N25" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110"/>
+    </row>
+    <row r="26" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A26" s="21"/>
+      <c r="B26" s="23">
+        <v>9</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+    </row>
+    <row r="27" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23">
+        <v>10</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+    </row>
+    <row r="28" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A28" s="21"/>
+      <c r="B28" s="23">
+        <v>11</v>
+      </c>
+      <c r="C28" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A30" s="21"/>
+      <c r="B30" s="23">
+        <v>12</v>
+      </c>
+      <c r="C30" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A31" s="21"/>
+      <c r="B31" s="23">
+        <v>13</v>
+      </c>
+      <c r="C31" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23">
+        <v>14</v>
+      </c>
+      <c r="C32" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A33" s="21"/>
+      <c r="B33" s="23">
         <v>15</v>
       </c>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-    </row>
-    <row r="17" spans="1:19" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="M17" s="30" t="s">
+      <c r="C33" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23">
+        <v>16</v>
+      </c>
+      <c r="C34" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="1:15" ht="27.6" customHeight="1">
+      <c r="A36" s="10"/>
+      <c r="B36" s="133" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="134"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="10"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" spans="1:15" ht="21.6" customHeight="1">
+      <c r="A38" s="10"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="N17" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="O17" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23">
+      <c r="L38" s="10"/>
+      <c r="M38" s="10">
+        <f>SUM(M19:M28)</f>
         <v>1</v>
       </c>
-      <c r="C18" s="124" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L18" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="22"/>
-    </row>
-    <row r="19" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="24">
-        <v>2</v>
-      </c>
-      <c r="C19" s="114" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
-        <f t="shared" ref="M19:N34" si="0">IF((K19=FALSE),0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="51">
-        <f>N19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="24">
-        <v>3</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="51">
-        <f t="shared" ref="O20:O34" si="1">N20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="2" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="24">
-        <v>4</v>
-      </c>
-      <c r="C21" s="135" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="130"/>
-      <c r="Q21" s="130"/>
-      <c r="R21" s="130"/>
-      <c r="S21" s="130"/>
-    </row>
-    <row r="22" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="24">
-        <v>5</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="24">
-        <v>6</v>
-      </c>
-      <c r="C23" s="124" t="s">
+      <c r="N38" s="10">
+        <f>SUM(N19:N28)</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="10">
+        <f>SUM(O19:O28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10">
+        <f>SUM(M30:M34)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="10">
+        <f>SUM(N30:N34)</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="1:15" ht="20.25" customHeight="1">
+      <c r="A40" s="10"/>
+      <c r="B40" s="124" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="125"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+    </row>
+    <row r="41" spans="1:15" ht="24.75" customHeight="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+    </row>
+    <row r="42" spans="1:15" ht="18">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="10"/>
+    </row>
+    <row r="43" spans="1:15" ht="11.25" customHeight="1">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+    </row>
+    <row r="44" spans="1:15" ht="44.25" customHeight="1">
+      <c r="A44" s="10"/>
+      <c r="B44" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="24">
-        <v>7</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" s="11">
-        <f t="shared" ref="M24" si="2">IF((K24=FALSE),0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="11">
-        <f t="shared" ref="N24" si="3">IF((L24=FALSE),0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="51"/>
-      <c r="P24" s="130"/>
-      <c r="Q24" s="130"/>
-      <c r="R24" s="130"/>
-      <c r="S24" s="130"/>
-    </row>
-    <row r="25" spans="1:19" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="24">
-        <v>8</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="11">
-        <f>IF(G25="",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="130"/>
-      <c r="Q25" s="130"/>
-      <c r="R25" s="130"/>
-      <c r="S25" s="130"/>
-    </row>
-    <row r="26" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="24">
-        <v>9</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-    </row>
-    <row r="27" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A27" s="22"/>
-      <c r="B27" s="24">
-        <v>10</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-    </row>
-    <row r="28" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A28" s="22"/>
-      <c r="B28" s="24">
-        <v>11</v>
-      </c>
-      <c r="C28" s="131" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="131"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="127" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="24">
-        <v>12</v>
-      </c>
-      <c r="C30" s="114" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="24">
-        <v>13</v>
-      </c>
-      <c r="C31" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="24">
-        <v>14</v>
-      </c>
-      <c r="C32" s="114" t="s">
+      <c r="C44" s="122"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="131"/>
+      <c r="G44" s="131"/>
+      <c r="H44" s="132"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+    </row>
+    <row r="45" spans="1:15" ht="18">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M32" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="24">
-        <v>15</v>
-      </c>
-      <c r="C33" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M33" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A34" s="22"/>
-      <c r="B34" s="24">
-        <v>16</v>
-      </c>
-      <c r="C34" s="114" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M34" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="11"/>
-      <c r="B36" s="117" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="118"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="11"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-    </row>
-    <row r="38" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A38" s="11"/>
-      <c r="B38" s="121"/>
-      <c r="C38" s="122"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11">
-        <f>SUM(M19:M28)</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="11">
-        <f>SUM(N19:N28)</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="11">
-        <f>SUM(O19:O28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11">
-        <f>SUM(M30:M34)</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="11">
-        <f>SUM(N30:N34)</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="11"/>
-    </row>
-    <row r="40" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A40" s="11"/>
-      <c r="B40" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-    </row>
-    <row r="41" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A41" s="11"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-    </row>
-    <row r="42" spans="1:15" ht="18">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="11"/>
-    </row>
-    <row r="43" spans="1:15" ht="11.25" customHeight="1">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-    </row>
-    <row r="44" spans="1:15" ht="44.25" customHeight="1">
-      <c r="A44" s="11"/>
-      <c r="B44" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="103"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="112"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-    </row>
-    <row r="45" spans="1:15" ht="18">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
     </row>
     <row r="46" spans="1:15" ht="18">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="41"/>
-      <c r="B47" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
     </row>
     <row r="48" spans="1:15" ht="8.25" customHeight="1">
-      <c r="A48" s="41"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="34"/>
-      <c r="B49" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" s="34"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="34"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="97"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="33"/>
     </row>
     <row r="50" spans="1:9" ht="7.5" customHeight="1">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A51" s="34"/>
-      <c r="B51" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="34"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="34"/>
-    </row>
-    <row r="53" spans="1:9" ht="9" customHeight="1">
-      <c r="D53" s="3"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="97"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="97"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="33"/>
+    </row>
+    <row r="52" spans="1:9" ht="7.5" customHeight="1">
+      <c r="B52" s="98"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="98"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" customHeight="1">
+      <c r="B53" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="97"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="B54" s="98"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="98"/>
     </row>
   </sheetData>
-  <sheetProtection password="CBAB" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="38">
+  <sheetProtection algorithmName="SHA-512" hashValue="GvujXk92oAOswKHJD8G6OuArYfOnABTMDC7q/w90BqgjiuPs9mrm2TG96LBi4j3dsIqija/bW3AsyIbr2R/XSA==" saltValue="Fh4q9nvYt1CSs+ZuLmAkzw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <mergeCells count="44">
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B40:D41"/>
+    <mergeCell ref="E40:H41"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="B36:C38"/>
+    <mergeCell ref="D36:H38"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
     <mergeCell ref="P12:V12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="C23:F23"/>
@@ -4555,28 +4665,6 @@
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C21:F21"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B40:D41"/>
-    <mergeCell ref="E40:H41"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="B36:C38"/>
-    <mergeCell ref="D36:H38"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <conditionalFormatting sqref="G25">
     <cfRule type="expression" dxfId="15" priority="10">
@@ -4591,7 +4679,7 @@
       <formula>NOT(ISERROR(SEARCH("nicht alle Haken oder doppelt gesetzt",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44:H44 E40:H41 D36:H38 D3 F3 H3">
+  <conditionalFormatting sqref="E44:H44 E40:H41 D3 F3 H3 D36">
     <cfRule type="cellIs" dxfId="12" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -4654,12 +4742,8 @@
       <formula>NOT(ISERROR(SEARCH("nicht alle Pflichtfelder ausgefüllt",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="D51" r:id="rId1"/>
-    <hyperlink ref="D49" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>